--- a/装备统计.xlsx
+++ b/装备统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\merc_sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A938EC17-F3C8-4659-8853-0192B930A0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDEBA14-3793-46CB-BDA0-D9E7436D0552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="-120" windowWidth="27600" windowHeight="16440" xr2:uid="{C7B63D7D-A0D1-4307-A8F5-407E9994E362}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C7B63D7D-A0D1-4307-A8F5-407E9994E362}"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="1479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="1479">
   <si>
     <t>纯洁长袍</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2934,22 +2934,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>战争践踏造成的伤害增加2点。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战争践踏造成的伤害增加3点。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战争践踏造成的伤害增加4点。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战争践踏造成的伤害增加5点。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>耐久光环使此佣兵的下一个技能的速度值加快（1）点。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4768,14 +4752,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>使另一个友方佣兵获得圣盾。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使你的角色获得圣盾。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>冰药剂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5078,6 +5054,30 @@
   </si>
   <si>
     <t>无装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡语：使另一个友方佣兵获得圣盾。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡语：使你的角色获得圣盾。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大地践踏造成的伤害增加2点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大地践踏造成的伤害增加3点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大地践踏造成的伤害增加4点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大地践踏造成的伤害增加5点。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5457,8 +5457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F0EF85-714F-4EB7-8EC4-21270683014B}">
   <dimension ref="A1:K158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5507,37 +5507,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.2">
@@ -6172,16 +6172,16 @@
         <v>903</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>343</v>
@@ -6265,13 +6265,13 @@
         <v>57</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>353</v>
@@ -6294,16 +6294,16 @@
         <v>55</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>916</v>
+        <v>1475</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>917</v>
+        <v>1476</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>918</v>
+        <v>1477</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>919</v>
+        <v>1478</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>356</v>
@@ -6364,7 +6364,7 @@
         <v>54</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>364</v>
@@ -6454,13 +6454,13 @@
         <v>42</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>373</v>
@@ -6489,13 +6489,13 @@
         <v>40</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>377</v>
@@ -6521,13 +6521,13 @@
         <v>39</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>381</v>
@@ -6547,16 +6547,16 @@
         <v>121</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>384</v>
@@ -6579,16 +6579,16 @@
         <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>387</v>
@@ -6617,13 +6617,13 @@
         <v>37</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>391</v>
@@ -6646,19 +6646,19 @@
         <v>124</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>947</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>395</v>
@@ -6681,19 +6681,19 @@
         <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>399</v>
@@ -6716,19 +6716,19 @@
         <v>126</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>403</v>
@@ -6757,13 +6757,13 @@
         <v>33</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>407</v>
@@ -6789,16 +6789,16 @@
         <v>32</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>411</v>
@@ -6827,13 +6827,13 @@
         <v>31</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>415</v>
@@ -6856,19 +6856,19 @@
         <v>132</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>972</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>419</v>
@@ -6891,19 +6891,19 @@
         <v>133</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>977</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>423</v>
@@ -6926,16 +6926,16 @@
         <v>134</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>427</v>
@@ -6955,19 +6955,19 @@
         <v>136</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>982</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>986</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>430</v>
@@ -6990,19 +6990,19 @@
         <v>137</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>987</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>991</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>434</v>
@@ -7025,19 +7025,19 @@
         <v>138</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>438</v>
@@ -7060,19 +7060,19 @@
         <v>140</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>1001</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>442</v>
@@ -7095,19 +7095,19 @@
         <v>141</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>1002</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>1006</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>446</v>
@@ -7130,19 +7130,19 @@
         <v>142</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>1011</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>450</v>
@@ -7168,16 +7168,16 @@
         <v>29</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>454</v>
@@ -7203,7 +7203,7 @@
         <v>28</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>458</v>
@@ -7220,16 +7220,16 @@
         <v>27</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>459</v>
@@ -7249,22 +7249,22 @@
         <v>147</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>463</v>
@@ -7287,19 +7287,19 @@
         <v>148</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>1027</v>
-      </c>
       <c r="E58" s="1" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>467</v>
@@ -7322,10 +7322,10 @@
         <v>149</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>471</v>
@@ -7339,19 +7339,19 @@
         <v>151</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>1034</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>1038</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>472</v>
@@ -7374,19 +7374,19 @@
         <v>152</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>476</v>
@@ -7409,19 +7409,19 @@
         <v>153</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>1044</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>1048</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>15</v>
@@ -7444,19 +7444,19 @@
         <v>155</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>1053</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>483</v>
@@ -7479,13 +7479,13 @@
         <v>156</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>487</v>
@@ -7502,19 +7502,19 @@
         <v>157</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>1061</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>489</v>
@@ -7537,19 +7537,19 @@
         <v>159</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>1066</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>493</v>
@@ -7572,13 +7572,13 @@
         <v>160</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>497</v>
@@ -7595,19 +7595,19 @@
         <v>161</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>1070</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>1074</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>499</v>
@@ -7630,19 +7630,19 @@
         <v>163</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>1075</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>1079</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>503</v>
@@ -7665,10 +7665,10 @@
         <v>164</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>507</v>
@@ -7682,19 +7682,19 @@
         <v>165</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>508</v>
@@ -7720,7 +7720,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>512</v>
@@ -7737,16 +7737,16 @@
         <v>11</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>513</v>
@@ -7772,16 +7772,16 @@
         <v>12</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>517</v>
@@ -7804,19 +7804,19 @@
         <v>170</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>1096</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>1100</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>521</v>
@@ -7839,10 +7839,10 @@
         <v>171</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>525</v>
@@ -7856,16 +7856,16 @@
         <v>172</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>526</v>
@@ -7885,19 +7885,19 @@
         <v>174</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>1107</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>1111</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>529</v>
@@ -7920,19 +7920,19 @@
         <v>175</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>1116</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>533</v>
@@ -7955,19 +7955,19 @@
         <v>176</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>1117</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>1121</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>537</v>
@@ -7990,19 +7990,19 @@
         <v>178</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>1122</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>1126</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>541</v>
@@ -8025,19 +8025,19 @@
         <v>179</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>545</v>
@@ -8060,19 +8060,19 @@
         <v>180</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>1132</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>1136</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>549</v>
@@ -8095,19 +8095,19 @@
         <v>182</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>553</v>
@@ -8130,19 +8130,19 @@
         <v>183</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>1145</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>557</v>
@@ -8165,10 +8165,10 @@
         <v>184</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>561</v>
@@ -8182,13 +8182,10 @@
         <v>186</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>26</v>
+        <v>1144</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>562</v>
@@ -8202,19 +8199,19 @@
         <v>187</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>563</v>
@@ -8237,19 +8234,19 @@
         <v>188</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>1155</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>1159</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>567</v>
@@ -8269,19 +8266,19 @@
         <v>189</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>1164</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>571</v>
@@ -8301,19 +8298,19 @@
         <v>190</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>574</v>
@@ -8336,19 +8333,19 @@
         <v>191</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>1170</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>1174</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>578</v>
@@ -8371,19 +8368,19 @@
         <v>193</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>1175</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>1179</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>582</v>
@@ -8406,19 +8403,19 @@
         <v>194</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>586</v>
@@ -8441,10 +8438,10 @@
         <v>195</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>590</v>
@@ -8458,19 +8455,19 @@
         <v>197</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>1191</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>1195</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>591</v>
@@ -8493,19 +8490,19 @@
         <v>198</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>1196</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>1200</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>595</v>
@@ -8528,19 +8525,19 @@
         <v>199</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>599</v>
@@ -8563,19 +8560,19 @@
         <v>201</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>1206</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>1210</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>603</v>
@@ -8598,19 +8595,19 @@
         <v>202</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>1211</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>1215</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>607</v>
@@ -8633,19 +8630,19 @@
         <v>203</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>611</v>
@@ -8668,16 +8665,16 @@
         <v>205</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>615</v>
@@ -8697,19 +8694,19 @@
         <v>206</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>618</v>
@@ -8732,19 +8729,19 @@
         <v>207</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>622</v>
@@ -8767,19 +8764,19 @@
         <v>209</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>1235</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>1239</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>626</v>
@@ -8802,19 +8799,19 @@
         <v>210</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>1240</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>1244</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>630</v>
@@ -8837,19 +8834,19 @@
         <v>211</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>1245</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>1249</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>634</v>
@@ -8872,19 +8869,19 @@
         <v>213</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>1250</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>1254</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>638</v>
@@ -8907,19 +8904,19 @@
         <v>214</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>1255</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>1259</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>642</v>
@@ -8942,19 +8939,19 @@
         <v>215</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>1260</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>1264</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>646</v>
@@ -8977,19 +8974,19 @@
         <v>217</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>650</v>
@@ -9018,13 +9015,13 @@
         <v>23</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>654</v>
@@ -9050,16 +9047,16 @@
         <v>22</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>658</v>
@@ -9082,19 +9079,19 @@
         <v>221</v>
       </c>
       <c r="C114" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>1276</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>1280</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>662</v>
@@ -9114,34 +9111,34 @@
         <v>220</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>1286</v>
-      </c>
       <c r="H115" s="1" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
@@ -9152,19 +9149,19 @@
         <v>222</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>666</v>
@@ -9187,19 +9184,19 @@
         <v>224</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>1296</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>1298</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>1300</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>670</v>
@@ -9222,19 +9219,19 @@
         <v>225</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>1301</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>1305</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>674</v>
@@ -9257,19 +9254,19 @@
         <v>226</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>1306</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>1310</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>678</v>
@@ -9295,16 +9292,16 @@
         <v>14</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>682</v>
@@ -9365,13 +9362,13 @@
         <v>21</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>688</v>
@@ -9391,19 +9388,19 @@
         <v>232</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>1318</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>1321</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>1322</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>691</v>
@@ -9426,19 +9423,19 @@
         <v>233</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="D124" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>1323</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>1327</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>695</v>
@@ -9461,16 +9458,16 @@
         <v>234</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>699</v>
@@ -9490,19 +9487,19 @@
         <v>236</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>1332</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>1334</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>1336</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>702</v>
@@ -9525,19 +9522,19 @@
         <v>237</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="D127" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G127" s="1" t="s">
         <v>1337</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>1341</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>706</v>
@@ -9563,16 +9560,16 @@
         <v>13</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>710</v>
@@ -9595,19 +9592,19 @@
         <v>240</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>1346</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>1350</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>714</v>
@@ -9630,19 +9627,19 @@
         <v>241</v>
       </c>
       <c r="C130" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>1351</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>1355</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>718</v>
@@ -9665,19 +9662,19 @@
         <v>242</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G131" s="1" t="s">
         <v>1356</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>1359</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>1360</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>722</v>
@@ -9703,13 +9700,13 @@
         <v>8</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>7</v>
@@ -9738,16 +9735,16 @@
         <v>9</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>730</v>
@@ -9773,16 +9770,16 @@
         <v>6</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>734</v>
@@ -9811,13 +9808,13 @@
         <v>4</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>738</v>
@@ -9846,13 +9843,13 @@
         <v>2</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>742</v>
@@ -9875,10 +9872,10 @@
         <v>250</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="K137" s="1" t="s">
         <v>746</v>
@@ -9892,19 +9889,19 @@
         <v>252</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>1380</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>1383</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>1384</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>747</v>
@@ -9927,19 +9924,19 @@
         <v>253</v>
       </c>
       <c r="C139" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>1385</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>1387</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>1388</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>1389</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>751</v>
@@ -9962,13 +9959,13 @@
         <v>254</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1391</v>
+        <v>1473</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1392</v>
+        <v>1474</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>755</v>
@@ -9985,19 +9982,19 @@
         <v>256</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>757</v>
@@ -10020,10 +10017,10 @@
         <v>257</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>761</v>
@@ -10037,16 +10034,16 @@
         <v>258</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>762</v>
@@ -10066,19 +10063,19 @@
         <v>260</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>765</v>
@@ -10101,16 +10098,16 @@
         <v>261</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>769</v>
@@ -10130,19 +10127,19 @@
         <v>262</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>772</v>
@@ -10165,19 +10162,19 @@
         <v>264</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>776</v>
@@ -10200,19 +10197,19 @@
         <v>265</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>778</v>
@@ -10235,19 +10232,19 @@
         <v>266</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>782</v>
@@ -10270,19 +10267,19 @@
         <v>267</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>786</v>
@@ -10305,19 +10302,19 @@
         <v>268</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>790</v>
@@ -10340,16 +10337,16 @@
         <v>269</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>794</v>
@@ -10369,19 +10366,19 @@
         <v>271</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>797</v>
@@ -10404,19 +10401,19 @@
         <v>272</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>801</v>
@@ -10439,19 +10436,19 @@
         <v>273</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>805</v>
@@ -10474,19 +10471,19 @@
         <v>275</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>809</v>
@@ -10512,16 +10509,16 @@
         <v>1</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>813</v>
@@ -10547,16 +10544,16 @@
         <v>0</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>817</v>
@@ -10577,5 +10574,6 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>